--- a/Random Faults CUDA/Analysis.xlsx
+++ b/Random Faults CUDA/Analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Purdue_CGT620_Assigns\Random Faults CUDA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE056993-9182-4804-ABE5-AF5585A78FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +24,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>CPU_MP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +89,1198 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Average Time Used for Different MaxSteps</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>567.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4C7D-46FC-B5C0-054C51E06671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU_MP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4C7D-46FC-B5C0-054C51E06671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4C7D-46FC-B5C0-054C51E06671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="310254783"/>
+        <c:axId val="543461503"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>n</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4C7D-46FC-B5C0-054C51E06671}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="310254783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543461503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543461503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310254783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DF641B-D513-4A01-AC03-2BC7E47F0EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1545,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>256</v>
+      </c>
+      <c r="C1">
+        <v>512</v>
+      </c>
+      <c r="D1">
+        <v>1024</v>
+      </c>
+      <c r="E1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>67.3</v>
+      </c>
+      <c r="C2">
+        <v>110.7</v>
+      </c>
+      <c r="D2">
+        <v>243.3</v>
+      </c>
+      <c r="E2">
+        <v>567.20000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>29.1</v>
+      </c>
+      <c r="C3">
+        <v>42.3</v>
+      </c>
+      <c r="D3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3.4</v>
+      </c>
+      <c r="E4">
+        <v>3.9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>